--- a/book.xlsx
+++ b/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlamb\nanogenmo2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA05201-E537-4D8A-BDE4-09101D237200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB7A2E-80AE-41F2-B835-D172527B8B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A67B2ADD-4360-443F-92BD-C6F5A67E016D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>aomm</t>
   </si>
@@ -175,6 +175,75 @@
   </si>
   <si>
     <t>The Best Of, So Far</t>
+  </si>
+  <si>
+    <t>Fatboy Slim - Right Here, Right Now</t>
+  </si>
+  <si>
+    <t>A-ha - Take On Me</t>
+  </si>
+  <si>
+    <t>Bonnie Tyler - Total Eclipse of the Heart</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys - Domino Dancing</t>
+  </si>
+  <si>
+    <t>New Order - Regret</t>
+  </si>
+  <si>
+    <t>New Order - Bizarre Love Triangle</t>
+  </si>
+  <si>
+    <t>Breeders - Cannonball</t>
+  </si>
+  <si>
+    <t>New Order - True Faith</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys - Always On My Mind</t>
+  </si>
+  <si>
+    <t>New Order - Confusion</t>
+  </si>
+  <si>
+    <t>Joy Division - Love Will Tear Us Apart</t>
+  </si>
+  <si>
+    <t>Blink 182 - Dammit</t>
+  </si>
+  <si>
+    <t>Madonna - Like a Prayer</t>
+  </si>
+  <si>
+    <t>New Radicals - Get What You Give</t>
+  </si>
+  <si>
+    <t>Depeche Mode - Enjoy the Silence</t>
+  </si>
+  <si>
+    <t>Fatboy Slim - Weapon of Choice</t>
+  </si>
+  <si>
+    <t>Massive Attack - Unfinished Sympathy</t>
+  </si>
+  <si>
+    <t>Basement Jaxx - Where's Your Head At</t>
+  </si>
+  <si>
+    <t>Bronski Beat - Smalltown Boy</t>
+  </si>
+  <si>
+    <t>Talking Heads - Once in a Lifetime</t>
+  </si>
+  <si>
+    <t>Smashing Pumpkins - 1979</t>
+  </si>
+  <si>
+    <t>Cranial Nerve Test with Pat LaFontaine &amp; Dr. James Kelly</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
@@ -526,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F396451-0F1F-4B2E-BEF7-BDFE59601E5D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +606,10 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -549,8 +619,11 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -560,8 +633,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -571,8 +647,11 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -582,8 +661,11 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -593,8 +675,11 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -604,8 +689,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -615,8 +703,11 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -626,8 +717,11 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -637,8 +731,11 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -648,8 +745,11 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -659,8 +759,11 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -670,8 +773,11 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -681,8 +787,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -692,8 +801,11 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -703,8 +815,11 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -714,8 +829,11 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -725,8 +843,11 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -736,8 +857,11 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -747,8 +871,11 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -758,8 +885,11 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -769,8 +899,11 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1979</v>
       </c>
@@ -780,8 +913,11 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -791,13 +927,12 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C25" xr:uid="{2F396451-0F1F-4B2E-BEF7-BDFE59601E5D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-      <sortCondition ref="B1:B25"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D23" xr:uid="{2F396451-0F1F-4B2E-BEF7-BDFE59601E5D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
